--- a/result/2022_06/mest/2022_06_mest.xlsx
+++ b/result/2022_06/mest/2022_06_mest.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="110">
   <si>
     <t>2022_06</t>
   </si>
@@ -79,6 +79,12 @@
     <t>84957870118</t>
   </si>
   <si>
+    <t>84996060699</t>
+  </si>
+  <si>
+    <t>84997832797</t>
+  </si>
+  <si>
     <t>ООО "Морбизнесцентр"(1310)</t>
   </si>
   <si>
@@ -97,6 +103,33 @@
     <t>84993348888</t>
   </si>
   <si>
+    <t>84953693372</t>
+  </si>
+  <si>
+    <t>84953633773</t>
+  </si>
+  <si>
+    <t>84952462424</t>
+  </si>
+  <si>
+    <t>84956638284</t>
+  </si>
+  <si>
+    <t>84955395907</t>
+  </si>
+  <si>
+    <t>84951501050</t>
+  </si>
+  <si>
+    <t>84957953775</t>
+  </si>
+  <si>
+    <t>84956682228</t>
+  </si>
+  <si>
+    <t>84955450622</t>
+  </si>
+  <si>
     <t>ООО "Хухтамаки С.Н.Г"(1320)</t>
   </si>
   <si>
@@ -143,6 +176,177 @@
   </si>
   <si>
     <t>84951145555</t>
+  </si>
+  <si>
+    <t>84952235555</t>
+  </si>
+  <si>
+    <t>84957812020</t>
+  </si>
+  <si>
+    <t>84951381616</t>
+  </si>
+  <si>
+    <t>84996812357</t>
+  </si>
+  <si>
+    <t>84955295064</t>
+  </si>
+  <si>
+    <t>84955000313</t>
+  </si>
+  <si>
+    <t>84957889788</t>
+  </si>
+  <si>
+    <t>84955320228</t>
+  </si>
+  <si>
+    <t>84957354062</t>
+  </si>
+  <si>
+    <t>84957994125</t>
+  </si>
+  <si>
+    <t>84957898081</t>
+  </si>
+  <si>
+    <t>84996382727</t>
+  </si>
+  <si>
+    <t>84957870600</t>
+  </si>
+  <si>
+    <t>84950211449</t>
+  </si>
+  <si>
+    <t>84991105872</t>
+  </si>
+  <si>
+    <t>84959373374</t>
+  </si>
+  <si>
+    <t>84951344955</t>
+  </si>
+  <si>
+    <t>84957871118</t>
+  </si>
+  <si>
+    <t>84955756696</t>
+  </si>
+  <si>
+    <t>84994644263</t>
+  </si>
+  <si>
+    <t>84951208208</t>
+  </si>
+  <si>
+    <t>84959560880</t>
+  </si>
+  <si>
+    <t>84951233407</t>
+  </si>
+  <si>
+    <t>84952871668</t>
+  </si>
+  <si>
+    <t>84957256795</t>
+  </si>
+  <si>
+    <t>84957555858</t>
+  </si>
+  <si>
+    <t>84954314236</t>
+  </si>
+  <si>
+    <t>84991102250</t>
+  </si>
+  <si>
+    <t>84951119244</t>
+  </si>
+  <si>
+    <t>84955437388</t>
+  </si>
+  <si>
+    <t>84952311697</t>
+  </si>
+  <si>
+    <t>84991860260</t>
+  </si>
+  <si>
+    <t>84952259192</t>
+  </si>
+  <si>
+    <t>84957894444</t>
+  </si>
+  <si>
+    <t>84955395454</t>
+  </si>
+  <si>
+    <t>84956209191</t>
+  </si>
+  <si>
+    <t>84957888878</t>
+  </si>
+  <si>
+    <t>84955327990</t>
+  </si>
+  <si>
+    <t>84956636203</t>
+  </si>
+  <si>
+    <t>84955438993</t>
+  </si>
+  <si>
+    <t>84957751929</t>
+  </si>
+  <si>
+    <t>84952878357</t>
+  </si>
+  <si>
+    <t>84953239045</t>
+  </si>
+  <si>
+    <t>84952807759</t>
+  </si>
+  <si>
+    <t>84997852040</t>
+  </si>
+  <si>
+    <t>84997020706</t>
+  </si>
+  <si>
+    <t>84955257039</t>
+  </si>
+  <si>
+    <t>84955040646</t>
+  </si>
+  <si>
+    <t>84959026164</t>
+  </si>
+  <si>
+    <t>84993980205</t>
+  </si>
+  <si>
+    <t>84951200097</t>
+  </si>
+  <si>
+    <t>84955437693</t>
+  </si>
+  <si>
+    <t>84954350911</t>
+  </si>
+  <si>
+    <t>84992880122</t>
+  </si>
+  <si>
+    <t>84959000121</t>
+  </si>
+  <si>
+    <t>84996535565</t>
+  </si>
+  <si>
+    <t>84957812025</t>
   </si>
 </sst>
 </file>
@@ -564,13 +768,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" s="2">
         <v>0.43</v>
       </c>
       <c r="E6" s="2">
-        <v>0.86</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -581,13 +785,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="6">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2">
         <v>0.43</v>
       </c>
       <c r="E7" s="2">
-        <v>3.44</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -598,18 +802,18 @@
         <v>9</v>
       </c>
       <c r="C8" s="6">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="D8" s="2">
         <v>0.7</v>
       </c>
       <c r="E8" s="2">
-        <v>35</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="E9" s="1">
-        <v>39.3</v>
+        <v>338.65</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -624,89 +828,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="7">
-        <v>44714.43186342593</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="7">
-        <v>44714.4780787037</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="100" orientation="portrait"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:XFD1048576" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -730,7 +851,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -749,13 +870,124 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="7">
+        <v>44714.43186342593</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7">
+        <v>44714.4780787037</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7">
+        <v>44722.50478009259</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7">
+        <v>44725.4415162037</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="100" orientation="portrait"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:XFD1048576" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
         <v>44713.40917824074</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
@@ -766,10 +998,10 @@
         <v>44713.42314814815</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -780,10 +1012,10 @@
         <v>44713.46572916667</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -794,18 +1026,228 @@
         <v>44713.60835648148</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="D9" s="1">
-        <v>8</v>
+      <c r="A9" s="7">
+        <v>44719.58528935185</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7">
+        <v>44726.41931712963</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7">
+        <v>44726.56650462963</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7">
+        <v>44727.48456018518</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7">
+        <v>44727.48532407408</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7">
+        <v>44727.49577546296</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7">
+        <v>44727.50894675926</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7">
+        <v>44727.51140046296</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="7">
+        <v>44735.48076388889</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="7">
+        <v>44739.4424537037</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7">
+        <v>44739.50726851852</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="7">
+        <v>44740.59226851852</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7">
+        <v>44741.44350694444</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7">
+        <v>44741.49964120371</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7">
+        <v>44741.50268518519</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="D24" s="1">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -822,7 +1264,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -841,7 +1283,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -863,10 +1305,10 @@
         <v>44713.35079861111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -877,10 +1319,10 @@
         <v>44713.38728009259</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -891,10 +1333,10 @@
         <v>44713.39056712963</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
@@ -905,10 +1347,10 @@
         <v>44713.39604166667</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -919,10 +1361,10 @@
         <v>44713.42275462963</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -933,10 +1375,10 @@
         <v>44713.44708333333</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2">
         <v>7</v>
@@ -947,10 +1389,10 @@
         <v>44713.47138888889</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -961,10 +1403,10 @@
         <v>44713.60739583334</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2">
         <v>1</v>
@@ -975,10 +1417,10 @@
         <v>44713.60975694445</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
@@ -989,10 +1431,10 @@
         <v>44713.61038194445</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2">
         <v>2</v>
@@ -1003,10 +1445,10 @@
         <v>44713.61067129629</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
@@ -1017,10 +1459,10 @@
         <v>44713.6139699074</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2">
         <v>1</v>
@@ -1031,10 +1473,10 @@
         <v>44713.62415509259</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
@@ -1045,10 +1487,10 @@
         <v>44713.62481481482</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
@@ -1059,10 +1501,10 @@
         <v>44713.63414351852</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2">
         <v>1</v>
@@ -1073,10 +1515,10 @@
         <v>44713.6496412037</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -1087,10 +1529,10 @@
         <v>44713.6513425926</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2">
         <v>1</v>
@@ -1101,10 +1543,10 @@
         <v>44713.66717592593</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
@@ -1115,10 +1557,10 @@
         <v>44713.75084490741</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2">
         <v>4</v>
@@ -1129,10 +1571,10 @@
         <v>44714.41978009259</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -1143,10 +1585,10 @@
         <v>44714.45277777778</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2">
         <v>5</v>
@@ -1157,10 +1599,10 @@
         <v>44714.54011574074</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1171,10 +1613,10 @@
         <v>44714.71020833333</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D27" s="2">
         <v>3</v>
@@ -1185,18 +1627,1558 @@
         <v>44715.61244212963</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7">
+        <v>44718.40717592592</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7">
+        <v>44718.44540509259</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7">
+        <v>44718.59854166667</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7">
+        <v>44718.59980324074</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="7">
+        <v>44718.62541666667</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="7">
+        <v>44718.63417824074</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="7">
+        <v>44718.67730324074</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7">
+        <v>44718.6919212963</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7">
+        <v>44719.43121527778</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7">
+        <v>44720.36009259259</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="D29" s="1">
-        <v>50</v>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7">
+        <v>44720.36457175926</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="7">
+        <v>44720.38412037037</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="7">
+        <v>44720.43059027778</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="7">
+        <v>44720.45646990741</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="7">
+        <v>44720.46836805555</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="7">
+        <v>44720.47891203704</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="7">
+        <v>44720.53934027778</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="7">
+        <v>44720.61674768518</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="7">
+        <v>44720.65208333333</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="7">
+        <v>44720.6990625</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="7">
+        <v>44721.36646990741</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="7">
+        <v>44721.43271990741</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="7">
+        <v>44721.45328703704</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="7">
+        <v>44721.45363425926</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="7">
+        <v>44721.58420138889</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="7">
+        <v>44722.45584490741</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="7">
+        <v>44722.5514699074</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="7">
+        <v>44722.6412037037</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="7">
+        <v>44725.49773148148</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="7">
+        <v>44726.6435300926</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="7">
+        <v>44726.66707175926</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="7">
+        <v>44727.42180555555</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="7">
+        <v>44727.42980324074</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="7">
+        <v>44727.56429398148</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="7">
+        <v>44727.56474537037</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="7">
+        <v>44727.56564814815</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="7">
+        <v>44727.59568287037</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D65" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="7">
+        <v>44727.59792824074</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="7">
+        <v>44728.51868055556</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="7">
+        <v>44728.71071759259</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="7">
+        <v>44728.71800925926</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="7">
+        <v>44729.37855324074</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="7">
+        <v>44729.48041666667</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="7">
+        <v>44729.48122685185</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="7">
+        <v>44729.51480324074</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="7">
+        <v>44729.55975694444</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D74" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="7">
+        <v>44729.59761574074</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="7">
+        <v>44729.6021412037</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="7">
+        <v>44729.71440972222</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="7">
+        <v>44730.73556712963</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="7">
+        <v>44730.73607638889</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="7">
+        <v>44731.45826388889</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="7">
+        <v>44732.62288194444</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="7">
+        <v>44732.62702546296</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="7">
+        <v>44732.65861111111</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="7">
+        <v>44733.42363425926</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="7">
+        <v>44733.44321759259</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="7">
+        <v>44733.52356481482</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D86" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="7">
+        <v>44733.54130787037</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D87" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="7">
+        <v>44733.67631944444</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="7">
+        <v>44734.3905787037</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="7">
+        <v>44734.44490740741</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="7">
+        <v>44734.44630787037</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="7">
+        <v>44734.47769675926</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D92" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="7">
+        <v>44734.56590277778</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="7">
+        <v>44734.57023148148</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D94" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="7">
+        <v>44734.57061342592</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="7">
+        <v>44734.59726851852</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D96" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="7">
+        <v>44735.540625</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="7">
+        <v>44735.56605324074</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D98" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="7">
+        <v>44735.67243055555</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="7">
+        <v>44736.59196759259</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D100" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="7">
+        <v>44736.6066087963</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="7">
+        <v>44736.60745370371</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="7">
+        <v>44736.64164351852</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D103" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="7">
+        <v>44736.64304398148</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D104" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="7">
+        <v>44739.4671875</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D105" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="7">
+        <v>44739.54414351852</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D106" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="7">
+        <v>44739.56296296296</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D107" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="7">
+        <v>44739.57726851852</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D108" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="7">
+        <v>44740.56061342593</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D109" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="7">
+        <v>44740.64452546297</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D110" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="7">
+        <v>44740.68337962963</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D111" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="7">
+        <v>44740.6869212963</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D112" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="7">
+        <v>44741.38630787037</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="7">
+        <v>44741.39789351852</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D114" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="7">
+        <v>44741.43893518519</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="7">
+        <v>44741.47521990741</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D116" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="7">
+        <v>44741.498125</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D117" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="7">
+        <v>44741.52981481481</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D118" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="7">
+        <v>44741.53346064815</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="7">
+        <v>44741.53356481482</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D120" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="7">
+        <v>44741.54319444444</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D121" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="7">
+        <v>44741.54972222223</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D122" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="7">
+        <v>44741.58133101852</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D123" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="7">
+        <v>44741.58405092593</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D124" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="7">
+        <v>44741.64116898148</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D125" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="7">
+        <v>44742.36793981482</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="7">
+        <v>44742.3741087963</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D127" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="7">
+        <v>44742.38680555556</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D128" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="7">
+        <v>44742.40502314815</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="7">
+        <v>44742.41434027778</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D130" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="7">
+        <v>44742.41766203703</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D131" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="7">
+        <v>44742.56020833334</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D132" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="7">
+        <v>44742.5659375</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D133" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="7">
+        <v>44742.62496527778</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D134" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="7">
+        <v>44742.64925925926</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D135" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="7">
+        <v>44742.69296296296</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D136" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="7">
+        <v>44742.72028935186</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D137" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="7">
+        <v>44742.72100694444</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D138" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="D139" s="1">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
